--- a/AAII_Financials/Yearly/CEL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CEL_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>CEL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,87 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1076300</v>
+        <v>1056700</v>
       </c>
       <c r="E8" s="3">
-        <v>1129700</v>
+        <v>1051000</v>
       </c>
       <c r="F8" s="3">
-        <v>1175200</v>
+        <v>1103200</v>
       </c>
       <c r="G8" s="3">
-        <v>1219900</v>
+        <v>1147700</v>
       </c>
       <c r="H8" s="3">
-        <v>1333700</v>
+        <v>1191300</v>
       </c>
       <c r="I8" s="3">
-        <v>1437900</v>
+        <v>1302400</v>
       </c>
       <c r="J8" s="3">
+        <v>1404100</v>
+      </c>
+      <c r="K8" s="3">
         <v>1732900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1817300</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -747,59 +753,65 @@
         <v>776600</v>
       </c>
       <c r="E9" s="3">
-        <v>782100</v>
+        <v>758400</v>
       </c>
       <c r="F9" s="3">
-        <v>788600</v>
+        <v>763800</v>
       </c>
       <c r="G9" s="3">
-        <v>806400</v>
+        <v>770000</v>
       </c>
       <c r="H9" s="3">
-        <v>795800</v>
+        <v>787400</v>
       </c>
       <c r="I9" s="3">
-        <v>872600</v>
+        <v>777200</v>
       </c>
       <c r="J9" s="3">
+        <v>852100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1010600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>952000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>299700</v>
+        <v>280100</v>
       </c>
       <c r="E10" s="3">
-        <v>347600</v>
+        <v>292700</v>
       </c>
       <c r="F10" s="3">
-        <v>386700</v>
+        <v>339400</v>
       </c>
       <c r="G10" s="3">
-        <v>413500</v>
+        <v>377600</v>
       </c>
       <c r="H10" s="3">
-        <v>537900</v>
+        <v>403800</v>
       </c>
       <c r="I10" s="3">
-        <v>565300</v>
+        <v>525200</v>
       </c>
       <c r="J10" s="3">
+        <v>552000</v>
+      </c>
+      <c r="K10" s="3">
         <v>722300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>865400</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,39 +920,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>56600</v>
+        <v>84600</v>
       </c>
       <c r="E15" s="3">
-        <v>41700</v>
+        <v>55300</v>
       </c>
       <c r="F15" s="3">
-        <v>40300</v>
+        <v>40800</v>
       </c>
       <c r="G15" s="3">
-        <v>52800</v>
+        <v>39300</v>
       </c>
       <c r="H15" s="3">
-        <v>58400</v>
+        <v>51600</v>
       </c>
       <c r="I15" s="3">
-        <v>75300</v>
+        <v>57000</v>
       </c>
       <c r="J15" s="3">
+        <v>73500</v>
+      </c>
+      <c r="K15" s="3">
         <v>96300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>82700</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1054700</v>
+        <v>1049900</v>
       </c>
       <c r="E17" s="3">
-        <v>1043000</v>
+        <v>1022300</v>
       </c>
       <c r="F17" s="3">
-        <v>1084800</v>
+        <v>1009700</v>
       </c>
       <c r="G17" s="3">
-        <v>1129400</v>
+        <v>1059300</v>
       </c>
       <c r="H17" s="3">
-        <v>1140500</v>
+        <v>1102900</v>
       </c>
       <c r="I17" s="3">
-        <v>1247900</v>
+        <v>1113700</v>
       </c>
       <c r="J17" s="3">
+        <v>1218600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1445500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1420100</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>21600</v>
+        <v>6800</v>
       </c>
       <c r="E18" s="3">
-        <v>86700</v>
+        <v>28800</v>
       </c>
       <c r="F18" s="3">
-        <v>90500</v>
+        <v>93500</v>
       </c>
       <c r="G18" s="3">
-        <v>90500</v>
+        <v>88300</v>
       </c>
       <c r="H18" s="3">
-        <v>193200</v>
+        <v>88300</v>
       </c>
       <c r="I18" s="3">
-        <v>190000</v>
+        <v>188700</v>
       </c>
       <c r="J18" s="3">
+        <v>185500</v>
+      </c>
+      <c r="K18" s="3">
         <v>287500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>397200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="E20" s="3">
-        <v>900</v>
+        <v>-9400</v>
       </c>
       <c r="F20" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="G20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2300</v>
       </c>
-      <c r="H20" s="3">
-        <v>15500</v>
-      </c>
       <c r="I20" s="3">
-        <v>18100</v>
+        <v>15100</v>
       </c>
       <c r="J20" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K20" s="3">
         <v>25400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>32400</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>189600</v>
+        <v>261600</v>
       </c>
       <c r="E21" s="3">
-        <v>248900</v>
+        <v>186300</v>
       </c>
       <c r="F21" s="3">
-        <v>247800</v>
+        <v>244200</v>
       </c>
       <c r="G21" s="3">
-        <v>251500</v>
+        <v>243000</v>
       </c>
       <c r="H21" s="3">
-        <v>386000</v>
+        <v>246700</v>
       </c>
       <c r="I21" s="3">
-        <v>404600</v>
+        <v>378200</v>
       </c>
       <c r="J21" s="3">
+        <v>396500</v>
+      </c>
+      <c r="K21" s="3">
         <v>535300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>636100</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>40300</v>
+        <v>41900</v>
       </c>
       <c r="E22" s="3">
-        <v>42900</v>
+        <v>39300</v>
       </c>
       <c r="F22" s="3">
-        <v>45800</v>
+        <v>41900</v>
       </c>
       <c r="G22" s="3">
-        <v>49300</v>
+        <v>44700</v>
       </c>
       <c r="H22" s="3">
-        <v>73300</v>
+        <v>48200</v>
       </c>
       <c r="I22" s="3">
-        <v>89900</v>
+        <v>71500</v>
       </c>
       <c r="J22" s="3">
+        <v>87800</v>
+      </c>
+      <c r="K22" s="3">
         <v>101000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>114200</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-20400</v>
+        <v>-37000</v>
       </c>
       <c r="E23" s="3">
-        <v>44700</v>
+        <v>-19900</v>
       </c>
       <c r="F23" s="3">
-        <v>46700</v>
+        <v>43600</v>
       </c>
       <c r="G23" s="3">
-        <v>38800</v>
+        <v>45600</v>
       </c>
       <c r="H23" s="3">
-        <v>135400</v>
+        <v>37900</v>
       </c>
       <c r="I23" s="3">
-        <v>118200</v>
+        <v>132200</v>
       </c>
       <c r="J23" s="3">
+        <v>115400</v>
+      </c>
+      <c r="K23" s="3">
         <v>211900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>315400</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1800</v>
+        <v>-6600</v>
       </c>
       <c r="E24" s="3">
-        <v>11700</v>
+        <v>-1700</v>
       </c>
       <c r="F24" s="3">
-        <v>2900</v>
+        <v>11400</v>
       </c>
       <c r="G24" s="3">
-        <v>10500</v>
+        <v>2800</v>
       </c>
       <c r="H24" s="3">
-        <v>32100</v>
+        <v>10300</v>
       </c>
       <c r="I24" s="3">
-        <v>34100</v>
+        <v>31300</v>
       </c>
       <c r="J24" s="3">
+        <v>33300</v>
+      </c>
+      <c r="K24" s="3">
         <v>56900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>84900</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-18700</v>
+        <v>-30500</v>
       </c>
       <c r="E26" s="3">
-        <v>33000</v>
+        <v>-18200</v>
       </c>
       <c r="F26" s="3">
-        <v>43800</v>
+        <v>32200</v>
       </c>
       <c r="G26" s="3">
-        <v>28300</v>
+        <v>42700</v>
       </c>
       <c r="H26" s="3">
-        <v>103300</v>
+        <v>27600</v>
       </c>
       <c r="I26" s="3">
-        <v>84000</v>
+        <v>100900</v>
       </c>
       <c r="J26" s="3">
+        <v>82100</v>
+      </c>
+      <c r="K26" s="3">
         <v>155000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>230400</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-18100</v>
+        <v>-30500</v>
       </c>
       <c r="E27" s="3">
-        <v>32700</v>
+        <v>-17700</v>
       </c>
       <c r="F27" s="3">
-        <v>43200</v>
+        <v>31900</v>
       </c>
       <c r="G27" s="3">
-        <v>27700</v>
+        <v>42200</v>
       </c>
       <c r="H27" s="3">
-        <v>102400</v>
+        <v>27100</v>
       </c>
       <c r="I27" s="3">
-        <v>83800</v>
+        <v>100000</v>
       </c>
       <c r="J27" s="3">
+        <v>81800</v>
+      </c>
+      <c r="K27" s="3">
         <v>154700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>230200</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="E32" s="3">
-        <v>-900</v>
+        <v>9400</v>
       </c>
       <c r="F32" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2300</v>
       </c>
-      <c r="H32" s="3">
-        <v>-15500</v>
-      </c>
       <c r="I32" s="3">
-        <v>-18100</v>
+        <v>-15100</v>
       </c>
       <c r="J32" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-25400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-32400</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-18100</v>
+        <v>-30500</v>
       </c>
       <c r="E33" s="3">
-        <v>32700</v>
+        <v>-17700</v>
       </c>
       <c r="F33" s="3">
-        <v>43200</v>
+        <v>31900</v>
       </c>
       <c r="G33" s="3">
-        <v>27700</v>
+        <v>42200</v>
       </c>
       <c r="H33" s="3">
-        <v>102400</v>
+        <v>27100</v>
       </c>
       <c r="I33" s="3">
-        <v>83800</v>
+        <v>100000</v>
       </c>
       <c r="J33" s="3">
+        <v>81800</v>
+      </c>
+      <c r="K33" s="3">
         <v>154700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>230200</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-18100</v>
+        <v>-30500</v>
       </c>
       <c r="E35" s="3">
-        <v>32700</v>
+        <v>-17700</v>
       </c>
       <c r="F35" s="3">
-        <v>43200</v>
+        <v>31900</v>
       </c>
       <c r="G35" s="3">
-        <v>27700</v>
+        <v>42200</v>
       </c>
       <c r="H35" s="3">
-        <v>102400</v>
+        <v>27100</v>
       </c>
       <c r="I35" s="3">
-        <v>83800</v>
+        <v>100000</v>
       </c>
       <c r="J35" s="3">
+        <v>81800</v>
+      </c>
+      <c r="K35" s="3">
         <v>154700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>230200</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14600</v>
+        <v>16000</v>
       </c>
       <c r="E41" s="3">
-        <v>17200</v>
+        <v>14300</v>
       </c>
       <c r="F41" s="3">
-        <v>51900</v>
+        <v>16800</v>
       </c>
       <c r="G41" s="3">
-        <v>16600</v>
+        <v>50800</v>
       </c>
       <c r="H41" s="3">
-        <v>38800</v>
+        <v>16300</v>
       </c>
       <c r="I41" s="3">
-        <v>16900</v>
+        <v>37900</v>
       </c>
       <c r="J41" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K41" s="3">
         <v>11100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3900</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>454100</v>
+        <v>405800</v>
       </c>
       <c r="E42" s="3">
-        <v>242800</v>
+        <v>443700</v>
       </c>
       <c r="F42" s="3">
-        <v>392800</v>
+        <v>237200</v>
       </c>
       <c r="G42" s="3">
-        <v>287500</v>
+        <v>383800</v>
       </c>
       <c r="H42" s="3">
-        <v>451200</v>
+        <v>280900</v>
       </c>
       <c r="I42" s="3">
-        <v>441300</v>
+        <v>440800</v>
       </c>
       <c r="J42" s="3">
+        <v>431100</v>
+      </c>
+      <c r="K42" s="3">
         <v>545400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>327400</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>341500</v>
+        <v>328200</v>
       </c>
       <c r="E43" s="3">
-        <v>377300</v>
+        <v>333600</v>
       </c>
       <c r="F43" s="3">
-        <v>388700</v>
+        <v>368700</v>
       </c>
       <c r="G43" s="3">
-        <v>383800</v>
+        <v>379800</v>
       </c>
       <c r="H43" s="3">
-        <v>415900</v>
+        <v>375000</v>
       </c>
       <c r="I43" s="3">
-        <v>508100</v>
+        <v>406300</v>
       </c>
       <c r="J43" s="3">
+        <v>496400</v>
+      </c>
+      <c r="K43" s="3">
         <v>545200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>521000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>27400</v>
+        <v>18800</v>
       </c>
       <c r="E44" s="3">
-        <v>20400</v>
+        <v>26800</v>
       </c>
       <c r="F44" s="3">
-        <v>18700</v>
+        <v>20000</v>
       </c>
       <c r="G44" s="3">
-        <v>24800</v>
+        <v>18200</v>
       </c>
       <c r="H44" s="3">
-        <v>26000</v>
+        <v>24200</v>
       </c>
       <c r="I44" s="3">
-        <v>24500</v>
+        <v>25400</v>
       </c>
       <c r="J44" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K44" s="3">
         <v>32700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>47500</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>22800</v>
+      </c>
+      <c r="G45" s="3">
         <v>22500</v>
       </c>
-      <c r="E45" s="3">
-        <v>23300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>23100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>12500</v>
-      </c>
       <c r="H45" s="3">
-        <v>16600</v>
+        <v>12300</v>
       </c>
       <c r="I45" s="3">
-        <v>15500</v>
+        <v>16300</v>
       </c>
       <c r="J45" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K45" s="3">
         <v>16100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31000</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>860100</v>
+        <v>786700</v>
       </c>
       <c r="E46" s="3">
-        <v>681200</v>
+        <v>840300</v>
       </c>
       <c r="F46" s="3">
-        <v>875200</v>
+        <v>665500</v>
       </c>
       <c r="G46" s="3">
-        <v>725200</v>
+        <v>855100</v>
       </c>
       <c r="H46" s="3">
-        <v>948500</v>
+        <v>708600</v>
       </c>
       <c r="I46" s="3">
-        <v>1006300</v>
+        <v>926700</v>
       </c>
       <c r="J46" s="3">
+        <v>983200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1150400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>930700</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>248600</v>
+        <v>265800</v>
       </c>
       <c r="E47" s="3">
-        <v>261200</v>
+        <v>242900</v>
       </c>
       <c r="F47" s="3">
-        <v>232300</v>
+        <v>255200</v>
       </c>
       <c r="G47" s="3">
-        <v>229100</v>
+        <v>227000</v>
       </c>
       <c r="H47" s="3">
-        <v>240500</v>
+        <v>223800</v>
       </c>
       <c r="I47" s="3">
-        <v>249200</v>
+        <v>235000</v>
       </c>
       <c r="J47" s="3">
+        <v>243500</v>
+      </c>
+      <c r="K47" s="3">
         <v>355800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>373500</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>482100</v>
+        <v>620700</v>
       </c>
       <c r="E48" s="3">
-        <v>466400</v>
+        <v>471100</v>
       </c>
       <c r="F48" s="3">
-        <v>484200</v>
+        <v>455700</v>
       </c>
       <c r="G48" s="3">
-        <v>509300</v>
+        <v>473000</v>
       </c>
       <c r="H48" s="3">
-        <v>535200</v>
+        <v>497600</v>
       </c>
       <c r="I48" s="3">
-        <v>544300</v>
+        <v>522900</v>
       </c>
       <c r="J48" s="3">
+        <v>531800</v>
+      </c>
+      <c r="K48" s="3">
         <v>606200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>605600</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>378800</v>
+        <v>369000</v>
       </c>
       <c r="E49" s="3">
-        <v>367700</v>
+        <v>370100</v>
       </c>
       <c r="F49" s="3">
-        <v>352300</v>
+        <v>359300</v>
       </c>
       <c r="G49" s="3">
-        <v>366000</v>
+        <v>344200</v>
       </c>
       <c r="H49" s="3">
-        <v>383800</v>
+        <v>357600</v>
       </c>
       <c r="I49" s="3">
-        <v>405400</v>
+        <v>375000</v>
       </c>
       <c r="J49" s="3">
+        <v>396100</v>
+      </c>
+      <c r="K49" s="3">
         <v>441000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>454700</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2600</v>
       </c>
-      <c r="H52" s="3">
-        <v>5000</v>
-      </c>
       <c r="I52" s="3">
-        <v>6700</v>
+        <v>4800</v>
       </c>
       <c r="J52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K52" s="3">
         <v>11100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>25700</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1969600</v>
+        <v>2042200</v>
       </c>
       <c r="E54" s="3">
-        <v>1776400</v>
+        <v>1924400</v>
       </c>
       <c r="F54" s="3">
-        <v>1944200</v>
+        <v>1735600</v>
       </c>
       <c r="G54" s="3">
-        <v>1832200</v>
+        <v>1899600</v>
       </c>
       <c r="H54" s="3">
-        <v>2112900</v>
+        <v>1790100</v>
       </c>
       <c r="I54" s="3">
-        <v>2211900</v>
+        <v>2064400</v>
       </c>
       <c r="J54" s="3">
+        <v>2161100</v>
+      </c>
+      <c r="K54" s="3">
         <v>2564400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2390200</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>84000</v>
+        <v>98400</v>
       </c>
       <c r="E57" s="3">
-        <v>74700</v>
+        <v>82100</v>
       </c>
       <c r="F57" s="3">
-        <v>59200</v>
+        <v>73000</v>
       </c>
       <c r="G57" s="3">
-        <v>66200</v>
+        <v>57900</v>
       </c>
       <c r="H57" s="3">
-        <v>128700</v>
+        <v>64700</v>
       </c>
       <c r="I57" s="3">
-        <v>83500</v>
+        <v>125700</v>
       </c>
       <c r="J57" s="3">
+        <v>81600</v>
+      </c>
+      <c r="K57" s="3">
         <v>118800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>154700</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>180900</v>
+        <v>209600</v>
       </c>
       <c r="E58" s="3">
-        <v>180400</v>
+        <v>176800</v>
       </c>
       <c r="F58" s="3">
-        <v>251900</v>
+        <v>176200</v>
       </c>
       <c r="G58" s="3">
-        <v>214200</v>
+        <v>246100</v>
       </c>
       <c r="H58" s="3">
-        <v>318700</v>
+        <v>209300</v>
       </c>
       <c r="I58" s="3">
-        <v>321000</v>
+        <v>311400</v>
       </c>
       <c r="J58" s="3">
+        <v>313700</v>
+      </c>
+      <c r="K58" s="3">
         <v>329500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>188300</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>224700</v>
+        <v>212700</v>
       </c>
       <c r="E59" s="3">
-        <v>224100</v>
+        <v>219600</v>
       </c>
       <c r="F59" s="3">
-        <v>250700</v>
+        <v>219000</v>
       </c>
       <c r="G59" s="3">
-        <v>262400</v>
+        <v>244900</v>
       </c>
       <c r="H59" s="3">
-        <v>256800</v>
+        <v>256300</v>
       </c>
       <c r="I59" s="3">
-        <v>286000</v>
+        <v>250900</v>
       </c>
       <c r="J59" s="3">
+        <v>279400</v>
+      </c>
+      <c r="K59" s="3">
         <v>342600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>398000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>489700</v>
+        <v>520700</v>
       </c>
       <c r="E60" s="3">
-        <v>479200</v>
+        <v>478500</v>
       </c>
       <c r="F60" s="3">
-        <v>561800</v>
+        <v>468200</v>
       </c>
       <c r="G60" s="3">
-        <v>542800</v>
+        <v>548900</v>
       </c>
       <c r="H60" s="3">
-        <v>704200</v>
+        <v>530400</v>
       </c>
       <c r="I60" s="3">
-        <v>690500</v>
+        <v>688000</v>
       </c>
       <c r="J60" s="3">
+        <v>674600</v>
+      </c>
+      <c r="K60" s="3">
         <v>790900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>741100</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>947000</v>
+        <v>953500</v>
       </c>
       <c r="E61" s="3">
-        <v>823600</v>
+        <v>925300</v>
       </c>
       <c r="F61" s="3">
-        <v>836400</v>
+        <v>804700</v>
       </c>
       <c r="G61" s="3">
-        <v>891300</v>
+        <v>817200</v>
       </c>
       <c r="H61" s="3">
-        <v>1035400</v>
+        <v>870800</v>
       </c>
       <c r="I61" s="3">
-        <v>1265700</v>
+        <v>1011700</v>
       </c>
       <c r="J61" s="3">
+        <v>1236700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1569500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1528200</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>43500</v>
+        <v>29900</v>
       </c>
       <c r="E62" s="3">
-        <v>53100</v>
+        <v>42500</v>
       </c>
       <c r="F62" s="3">
-        <v>155000</v>
+        <v>51900</v>
       </c>
       <c r="G62" s="3">
-        <v>52200</v>
+        <v>151400</v>
       </c>
       <c r="H62" s="3">
-        <v>54600</v>
+        <v>51000</v>
       </c>
       <c r="I62" s="3">
-        <v>48400</v>
+        <v>53300</v>
       </c>
       <c r="J62" s="3">
+        <v>47300</v>
+      </c>
+      <c r="K62" s="3">
         <v>58100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>68700</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1480800</v>
+        <v>1504700</v>
       </c>
       <c r="E66" s="3">
-        <v>1357100</v>
+        <v>1446800</v>
       </c>
       <c r="F66" s="3">
-        <v>1558400</v>
+        <v>1325900</v>
       </c>
       <c r="G66" s="3">
-        <v>1491000</v>
+        <v>1522600</v>
       </c>
       <c r="H66" s="3">
-        <v>1798900</v>
+        <v>1456800</v>
       </c>
       <c r="I66" s="3">
-        <v>2005500</v>
+        <v>1757600</v>
       </c>
       <c r="J66" s="3">
+        <v>1959500</v>
+      </c>
+      <c r="K66" s="3">
         <v>2419100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2339100</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>393700</v>
+        <v>359300</v>
       </c>
       <c r="E72" s="3">
-        <v>419100</v>
+        <v>384700</v>
       </c>
       <c r="F72" s="3">
-        <v>385800</v>
+        <v>409500</v>
       </c>
       <c r="G72" s="3">
-        <v>341500</v>
+        <v>377000</v>
       </c>
       <c r="H72" s="3">
-        <v>314600</v>
+        <v>333600</v>
       </c>
       <c r="I72" s="3">
-        <v>209800</v>
+        <v>307400</v>
       </c>
       <c r="J72" s="3">
+        <v>205000</v>
+      </c>
+      <c r="K72" s="3">
         <v>148500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>50800</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>488800</v>
+        <v>537500</v>
       </c>
       <c r="E76" s="3">
-        <v>419400</v>
+        <v>477600</v>
       </c>
       <c r="F76" s="3">
-        <v>385800</v>
+        <v>409700</v>
       </c>
       <c r="G76" s="3">
-        <v>341200</v>
+        <v>377000</v>
       </c>
       <c r="H76" s="3">
-        <v>314000</v>
+        <v>333300</v>
       </c>
       <c r="I76" s="3">
-        <v>206300</v>
+        <v>306800</v>
       </c>
       <c r="J76" s="3">
+        <v>201600</v>
+      </c>
+      <c r="K76" s="3">
         <v>145300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>51100</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-18100</v>
+        <v>-30500</v>
       </c>
       <c r="E81" s="3">
-        <v>32700</v>
+        <v>-17700</v>
       </c>
       <c r="F81" s="3">
-        <v>43200</v>
+        <v>31900</v>
       </c>
       <c r="G81" s="3">
-        <v>27700</v>
+        <v>42200</v>
       </c>
       <c r="H81" s="3">
-        <v>102400</v>
+        <v>27100</v>
       </c>
       <c r="I81" s="3">
-        <v>83800</v>
+        <v>100000</v>
       </c>
       <c r="J81" s="3">
+        <v>81800</v>
+      </c>
+      <c r="K81" s="3">
         <v>154700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>230200</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>170400</v>
+        <v>255900</v>
       </c>
       <c r="E83" s="3">
-        <v>162000</v>
+        <v>166400</v>
       </c>
       <c r="F83" s="3">
-        <v>155800</v>
+        <v>158200</v>
       </c>
       <c r="G83" s="3">
-        <v>164000</v>
+        <v>152200</v>
       </c>
       <c r="H83" s="3">
-        <v>178000</v>
+        <v>160200</v>
       </c>
       <c r="I83" s="3">
-        <v>197300</v>
+        <v>173800</v>
       </c>
       <c r="J83" s="3">
+        <v>192700</v>
+      </c>
+      <c r="K83" s="3">
         <v>223300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>206100</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>224700</v>
+        <v>295200</v>
       </c>
       <c r="E89" s="3">
-        <v>225900</v>
+        <v>219400</v>
       </c>
       <c r="F89" s="3">
-        <v>227900</v>
+        <v>220600</v>
       </c>
       <c r="G89" s="3">
-        <v>244000</v>
+        <v>222600</v>
       </c>
       <c r="H89" s="3">
-        <v>454400</v>
+        <v>238300</v>
       </c>
       <c r="I89" s="3">
-        <v>454100</v>
+        <v>443700</v>
       </c>
       <c r="J89" s="3">
+        <v>443400</v>
+      </c>
+      <c r="K89" s="3">
         <v>478900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>371000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-103900</v>
+        <v>-92300</v>
       </c>
       <c r="E91" s="3">
-        <v>-101000</v>
+        <v>-101500</v>
       </c>
       <c r="F91" s="3">
-        <v>-86100</v>
+        <v>-98600</v>
       </c>
       <c r="G91" s="3">
-        <v>-89000</v>
+        <v>-84100</v>
       </c>
       <c r="H91" s="3">
-        <v>-84300</v>
+        <v>-86900</v>
       </c>
       <c r="I91" s="3">
-        <v>-80300</v>
+        <v>-82400</v>
       </c>
       <c r="J91" s="3">
+        <v>-78400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-133400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-120700</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-184200</v>
+        <v>-159600</v>
       </c>
       <c r="E94" s="3">
-        <v>-187900</v>
+        <v>-179800</v>
       </c>
       <c r="F94" s="3">
-        <v>-106200</v>
+        <v>-183500</v>
       </c>
       <c r="G94" s="3">
-        <v>-28000</v>
+        <v>-103700</v>
       </c>
       <c r="H94" s="3">
-        <v>-102100</v>
+        <v>-27400</v>
       </c>
       <c r="I94" s="3">
-        <v>-100400</v>
+        <v>-99700</v>
       </c>
       <c r="J94" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-206600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-462600</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3068,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>-300</v>
@@ -3077,20 +3310,23 @@
         <v>-300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1200</v>
+        <v>-300</v>
       </c>
       <c r="I96" s="3">
-        <v>-23600</v>
+        <v>-1100</v>
       </c>
       <c r="J96" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-114100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-239700</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,56 +3420,62 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>156700</v>
+        <v>-191500</v>
       </c>
       <c r="E100" s="3">
-        <v>-246000</v>
+        <v>153000</v>
       </c>
       <c r="F100" s="3">
-        <v>18100</v>
+        <v>-240200</v>
       </c>
       <c r="G100" s="3">
-        <v>-331500</v>
+        <v>17700</v>
       </c>
       <c r="H100" s="3">
-        <v>-322800</v>
+        <v>-323700</v>
       </c>
       <c r="I100" s="3">
-        <v>-457900</v>
+        <v>-315200</v>
       </c>
       <c r="J100" s="3">
+        <v>-447100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-128100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>199700</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-300</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
@@ -3238,37 +3486,43 @@
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>197000</v>
+        <v>-55900</v>
       </c>
       <c r="E102" s="3">
-        <v>-208100</v>
+        <v>192400</v>
       </c>
       <c r="F102" s="3">
-        <v>139800</v>
+        <v>-203200</v>
       </c>
       <c r="G102" s="3">
-        <v>-115900</v>
+        <v>136500</v>
       </c>
       <c r="H102" s="3">
-        <v>29500</v>
+        <v>-113100</v>
       </c>
       <c r="I102" s="3">
-        <v>-104200</v>
+        <v>28800</v>
       </c>
       <c r="J102" s="3">
+        <v>-101700</v>
+      </c>
+      <c r="K102" s="3">
         <v>144200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>108100</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CEL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CEL_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1056700</v>
+        <v>1091000</v>
       </c>
       <c r="E8" s="3">
-        <v>1051000</v>
+        <v>1085100</v>
       </c>
       <c r="F8" s="3">
-        <v>1103200</v>
+        <v>1138900</v>
       </c>
       <c r="G8" s="3">
-        <v>1147700</v>
+        <v>1184800</v>
       </c>
       <c r="H8" s="3">
-        <v>1191300</v>
+        <v>1229800</v>
       </c>
       <c r="I8" s="3">
-        <v>1302400</v>
+        <v>1344600</v>
       </c>
       <c r="J8" s="3">
-        <v>1404100</v>
+        <v>1449600</v>
       </c>
       <c r="K8" s="3">
         <v>1732900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>776600</v>
+        <v>801700</v>
       </c>
       <c r="E9" s="3">
-        <v>758400</v>
+        <v>782900</v>
       </c>
       <c r="F9" s="3">
-        <v>763800</v>
+        <v>788500</v>
       </c>
       <c r="G9" s="3">
-        <v>770000</v>
+        <v>795000</v>
       </c>
       <c r="H9" s="3">
-        <v>787400</v>
+        <v>812900</v>
       </c>
       <c r="I9" s="3">
-        <v>777200</v>
+        <v>802300</v>
       </c>
       <c r="J9" s="3">
-        <v>852100</v>
+        <v>879700</v>
       </c>
       <c r="K9" s="3">
         <v>1010600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>280100</v>
+        <v>289200</v>
       </c>
       <c r="E10" s="3">
-        <v>292700</v>
+        <v>302200</v>
       </c>
       <c r="F10" s="3">
-        <v>339400</v>
+        <v>350400</v>
       </c>
       <c r="G10" s="3">
-        <v>377600</v>
+        <v>389800</v>
       </c>
       <c r="H10" s="3">
-        <v>403800</v>
+        <v>416900</v>
       </c>
       <c r="I10" s="3">
-        <v>525200</v>
+        <v>542200</v>
       </c>
       <c r="J10" s="3">
-        <v>552000</v>
+        <v>569900</v>
       </c>
       <c r="K10" s="3">
         <v>722300</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>84600</v>
+        <v>87400</v>
       </c>
       <c r="E15" s="3">
-        <v>55300</v>
+        <v>57100</v>
       </c>
       <c r="F15" s="3">
-        <v>40800</v>
+        <v>42100</v>
       </c>
       <c r="G15" s="3">
-        <v>39300</v>
+        <v>40600</v>
       </c>
       <c r="H15" s="3">
-        <v>51600</v>
+        <v>53300</v>
       </c>
       <c r="I15" s="3">
-        <v>57000</v>
+        <v>58800</v>
       </c>
       <c r="J15" s="3">
-        <v>73500</v>
+        <v>75900</v>
       </c>
       <c r="K15" s="3">
         <v>96300</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1049900</v>
+        <v>1083900</v>
       </c>
       <c r="E17" s="3">
-        <v>1022300</v>
+        <v>1055400</v>
       </c>
       <c r="F17" s="3">
-        <v>1009700</v>
+        <v>1042400</v>
       </c>
       <c r="G17" s="3">
-        <v>1059300</v>
+        <v>1093600</v>
       </c>
       <c r="H17" s="3">
-        <v>1102900</v>
+        <v>1138600</v>
       </c>
       <c r="I17" s="3">
-        <v>1113700</v>
+        <v>1149800</v>
       </c>
       <c r="J17" s="3">
-        <v>1218600</v>
+        <v>1258100</v>
       </c>
       <c r="K17" s="3">
         <v>1445500</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="E18" s="3">
-        <v>28800</v>
+        <v>29700</v>
       </c>
       <c r="F18" s="3">
-        <v>93500</v>
+        <v>96500</v>
       </c>
       <c r="G18" s="3">
-        <v>88300</v>
+        <v>91200</v>
       </c>
       <c r="H18" s="3">
-        <v>88300</v>
+        <v>91200</v>
       </c>
       <c r="I18" s="3">
-        <v>188700</v>
+        <v>194800</v>
       </c>
       <c r="J18" s="3">
-        <v>185500</v>
+        <v>191500</v>
       </c>
       <c r="K18" s="3">
         <v>287500</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="E20" s="3">
-        <v>-9400</v>
+        <v>-9700</v>
       </c>
       <c r="F20" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="G20" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H20" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="I20" s="3">
-        <v>15100</v>
+        <v>15600</v>
       </c>
       <c r="J20" s="3">
-        <v>17700</v>
+        <v>18200</v>
       </c>
       <c r="K20" s="3">
         <v>25400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>261600</v>
+        <v>269100</v>
       </c>
       <c r="E21" s="3">
-        <v>186300</v>
+        <v>191800</v>
       </c>
       <c r="F21" s="3">
-        <v>244200</v>
+        <v>251500</v>
       </c>
       <c r="G21" s="3">
-        <v>243000</v>
+        <v>250300</v>
       </c>
       <c r="H21" s="3">
-        <v>246700</v>
+        <v>254200</v>
       </c>
       <c r="I21" s="3">
-        <v>378200</v>
+        <v>389800</v>
       </c>
       <c r="J21" s="3">
-        <v>396500</v>
+        <v>408600</v>
       </c>
       <c r="K21" s="3">
         <v>535300</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>41900</v>
+        <v>43300</v>
       </c>
       <c r="E22" s="3">
-        <v>39300</v>
+        <v>40600</v>
       </c>
       <c r="F22" s="3">
-        <v>41900</v>
+        <v>43300</v>
       </c>
       <c r="G22" s="3">
-        <v>44700</v>
+        <v>46200</v>
       </c>
       <c r="H22" s="3">
-        <v>48200</v>
+        <v>49700</v>
       </c>
       <c r="I22" s="3">
-        <v>71500</v>
+        <v>73800</v>
       </c>
       <c r="J22" s="3">
-        <v>87800</v>
+        <v>90600</v>
       </c>
       <c r="K22" s="3">
         <v>101000</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-37000</v>
+        <v>-38200</v>
       </c>
       <c r="E23" s="3">
-        <v>-19900</v>
+        <v>-20600</v>
       </c>
       <c r="F23" s="3">
-        <v>43600</v>
+        <v>45000</v>
       </c>
       <c r="G23" s="3">
-        <v>45600</v>
+        <v>47100</v>
       </c>
       <c r="H23" s="3">
-        <v>37900</v>
+        <v>39100</v>
       </c>
       <c r="I23" s="3">
-        <v>132200</v>
+        <v>136500</v>
       </c>
       <c r="J23" s="3">
-        <v>115400</v>
+        <v>119200</v>
       </c>
       <c r="K23" s="3">
         <v>211900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-6600</v>
+        <v>-6800</v>
       </c>
       <c r="E24" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="F24" s="3">
-        <v>11400</v>
+        <v>11800</v>
       </c>
       <c r="G24" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H24" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="I24" s="3">
-        <v>31300</v>
+        <v>32400</v>
       </c>
       <c r="J24" s="3">
-        <v>33300</v>
+        <v>34400</v>
       </c>
       <c r="K24" s="3">
         <v>56900</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-30500</v>
+        <v>-31500</v>
       </c>
       <c r="E26" s="3">
-        <v>-18200</v>
+        <v>-18800</v>
       </c>
       <c r="F26" s="3">
-        <v>32200</v>
+        <v>33200</v>
       </c>
       <c r="G26" s="3">
-        <v>42700</v>
+        <v>44100</v>
       </c>
       <c r="H26" s="3">
-        <v>27600</v>
+        <v>28500</v>
       </c>
       <c r="I26" s="3">
-        <v>100900</v>
+        <v>104200</v>
       </c>
       <c r="J26" s="3">
-        <v>82100</v>
+        <v>84700</v>
       </c>
       <c r="K26" s="3">
         <v>155000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-30500</v>
+        <v>-31500</v>
       </c>
       <c r="E27" s="3">
-        <v>-17700</v>
+        <v>-18200</v>
       </c>
       <c r="F27" s="3">
-        <v>31900</v>
+        <v>33000</v>
       </c>
       <c r="G27" s="3">
-        <v>42200</v>
+        <v>43500</v>
       </c>
       <c r="H27" s="3">
-        <v>27100</v>
+        <v>28000</v>
       </c>
       <c r="I27" s="3">
-        <v>100000</v>
+        <v>103300</v>
       </c>
       <c r="J27" s="3">
-        <v>81800</v>
+        <v>84400</v>
       </c>
       <c r="K27" s="3">
         <v>154700</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E32" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="F32" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="G32" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="H32" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I32" s="3">
-        <v>-15100</v>
+        <v>-15600</v>
       </c>
       <c r="J32" s="3">
-        <v>-17700</v>
+        <v>-18200</v>
       </c>
       <c r="K32" s="3">
         <v>-25400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-30500</v>
+        <v>-31500</v>
       </c>
       <c r="E33" s="3">
-        <v>-17700</v>
+        <v>-18200</v>
       </c>
       <c r="F33" s="3">
-        <v>31900</v>
+        <v>33000</v>
       </c>
       <c r="G33" s="3">
-        <v>42200</v>
+        <v>43500</v>
       </c>
       <c r="H33" s="3">
-        <v>27100</v>
+        <v>28000</v>
       </c>
       <c r="I33" s="3">
-        <v>100000</v>
+        <v>103300</v>
       </c>
       <c r="J33" s="3">
-        <v>81800</v>
+        <v>84400</v>
       </c>
       <c r="K33" s="3">
         <v>154700</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-30500</v>
+        <v>-31500</v>
       </c>
       <c r="E35" s="3">
-        <v>-17700</v>
+        <v>-18200</v>
       </c>
       <c r="F35" s="3">
-        <v>31900</v>
+        <v>33000</v>
       </c>
       <c r="G35" s="3">
-        <v>42200</v>
+        <v>43500</v>
       </c>
       <c r="H35" s="3">
-        <v>27100</v>
+        <v>28000</v>
       </c>
       <c r="I35" s="3">
-        <v>100000</v>
+        <v>103300</v>
       </c>
       <c r="J35" s="3">
-        <v>81800</v>
+        <v>84400</v>
       </c>
       <c r="K35" s="3">
         <v>154700</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="E41" s="3">
-        <v>14300</v>
+        <v>14700</v>
       </c>
       <c r="F41" s="3">
+        <v>17400</v>
+      </c>
+      <c r="G41" s="3">
+        <v>52400</v>
+      </c>
+      <c r="H41" s="3">
         <v>16800</v>
       </c>
-      <c r="G41" s="3">
-        <v>50800</v>
-      </c>
-      <c r="H41" s="3">
-        <v>16300</v>
-      </c>
       <c r="I41" s="3">
-        <v>37900</v>
+        <v>39100</v>
       </c>
       <c r="J41" s="3">
-        <v>16500</v>
+        <v>17100</v>
       </c>
       <c r="K41" s="3">
         <v>11100</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>405800</v>
+        <v>418700</v>
       </c>
       <c r="E42" s="3">
-        <v>443700</v>
+        <v>457800</v>
       </c>
       <c r="F42" s="3">
-        <v>237200</v>
+        <v>244800</v>
       </c>
       <c r="G42" s="3">
-        <v>383800</v>
+        <v>396000</v>
       </c>
       <c r="H42" s="3">
-        <v>280900</v>
+        <v>289800</v>
       </c>
       <c r="I42" s="3">
-        <v>440800</v>
+        <v>454900</v>
       </c>
       <c r="J42" s="3">
-        <v>431100</v>
+        <v>444900</v>
       </c>
       <c r="K42" s="3">
         <v>545400</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>328200</v>
+        <v>338600</v>
       </c>
       <c r="E43" s="3">
-        <v>333600</v>
+        <v>344200</v>
       </c>
       <c r="F43" s="3">
-        <v>368700</v>
+        <v>380400</v>
       </c>
       <c r="G43" s="3">
-        <v>379800</v>
+        <v>391900</v>
       </c>
       <c r="H43" s="3">
-        <v>375000</v>
+        <v>386900</v>
       </c>
       <c r="I43" s="3">
-        <v>406300</v>
+        <v>419300</v>
       </c>
       <c r="J43" s="3">
-        <v>496400</v>
+        <v>512200</v>
       </c>
       <c r="K43" s="3">
         <v>545200</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>27700</v>
+      </c>
+      <c r="F44" s="3">
+        <v>20600</v>
+      </c>
+      <c r="G44" s="3">
         <v>18800</v>
       </c>
-      <c r="E44" s="3">
-        <v>26800</v>
-      </c>
-      <c r="F44" s="3">
-        <v>20000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>18200</v>
-      </c>
       <c r="H44" s="3">
-        <v>24200</v>
+        <v>25000</v>
       </c>
       <c r="I44" s="3">
-        <v>25400</v>
+        <v>26200</v>
       </c>
       <c r="J44" s="3">
-        <v>24000</v>
+        <v>24700</v>
       </c>
       <c r="K44" s="3">
         <v>32700</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="E45" s="3">
-        <v>22000</v>
+        <v>22700</v>
       </c>
       <c r="F45" s="3">
-        <v>22800</v>
+        <v>23500</v>
       </c>
       <c r="G45" s="3">
-        <v>22500</v>
+        <v>23200</v>
       </c>
       <c r="H45" s="3">
-        <v>12300</v>
+        <v>12700</v>
       </c>
       <c r="I45" s="3">
-        <v>16300</v>
+        <v>16800</v>
       </c>
       <c r="J45" s="3">
-        <v>15100</v>
+        <v>15600</v>
       </c>
       <c r="K45" s="3">
         <v>16100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>786700</v>
+        <v>811800</v>
       </c>
       <c r="E46" s="3">
-        <v>840300</v>
+        <v>867100</v>
       </c>
       <c r="F46" s="3">
-        <v>665500</v>
+        <v>686700</v>
       </c>
       <c r="G46" s="3">
-        <v>855100</v>
+        <v>882400</v>
       </c>
       <c r="H46" s="3">
-        <v>708600</v>
+        <v>731100</v>
       </c>
       <c r="I46" s="3">
-        <v>926700</v>
+        <v>956200</v>
       </c>
       <c r="J46" s="3">
-        <v>983200</v>
+        <v>1014500</v>
       </c>
       <c r="K46" s="3">
         <v>1150400</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>265800</v>
+        <v>274200</v>
       </c>
       <c r="E47" s="3">
-        <v>242900</v>
+        <v>250700</v>
       </c>
       <c r="F47" s="3">
-        <v>255200</v>
+        <v>263300</v>
       </c>
       <c r="G47" s="3">
-        <v>227000</v>
+        <v>234200</v>
       </c>
       <c r="H47" s="3">
-        <v>223800</v>
+        <v>231000</v>
       </c>
       <c r="I47" s="3">
-        <v>235000</v>
+        <v>242400</v>
       </c>
       <c r="J47" s="3">
-        <v>243500</v>
+        <v>251300</v>
       </c>
       <c r="K47" s="3">
         <v>355800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>620700</v>
+        <v>640500</v>
       </c>
       <c r="E48" s="3">
-        <v>471100</v>
+        <v>486100</v>
       </c>
       <c r="F48" s="3">
-        <v>455700</v>
+        <v>470200</v>
       </c>
       <c r="G48" s="3">
-        <v>473000</v>
+        <v>488100</v>
       </c>
       <c r="H48" s="3">
-        <v>497600</v>
+        <v>513400</v>
       </c>
       <c r="I48" s="3">
-        <v>522900</v>
+        <v>539600</v>
       </c>
       <c r="J48" s="3">
-        <v>531800</v>
+        <v>548700</v>
       </c>
       <c r="K48" s="3">
         <v>606200</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>380700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>381900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>370700</v>
+      </c>
+      <c r="G49" s="3">
+        <v>355100</v>
+      </c>
+      <c r="H49" s="3">
         <v>369000</v>
       </c>
-      <c r="E49" s="3">
-        <v>370100</v>
-      </c>
-      <c r="F49" s="3">
-        <v>359300</v>
-      </c>
-      <c r="G49" s="3">
-        <v>344200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>357600</v>
-      </c>
       <c r="I49" s="3">
-        <v>375000</v>
+        <v>386900</v>
       </c>
       <c r="J49" s="3">
-        <v>396100</v>
+        <v>408700</v>
       </c>
       <c r="K49" s="3">
         <v>441000</v>
@@ -2030,10 +2030,10 @@
         <v>2600</v>
       </c>
       <c r="I52" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="J52" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="K52" s="3">
         <v>11100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2042200</v>
+        <v>2107200</v>
       </c>
       <c r="E54" s="3">
-        <v>1924400</v>
+        <v>1985700</v>
       </c>
       <c r="F54" s="3">
-        <v>1735600</v>
+        <v>1790900</v>
       </c>
       <c r="G54" s="3">
-        <v>1899600</v>
+        <v>1960100</v>
       </c>
       <c r="H54" s="3">
-        <v>1790100</v>
+        <v>1847100</v>
       </c>
       <c r="I54" s="3">
-        <v>2064400</v>
+        <v>2130200</v>
       </c>
       <c r="J54" s="3">
-        <v>2161100</v>
+        <v>2229900</v>
       </c>
       <c r="K54" s="3">
         <v>2564400</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>98400</v>
+        <v>101500</v>
       </c>
       <c r="E57" s="3">
-        <v>82100</v>
+        <v>84700</v>
       </c>
       <c r="F57" s="3">
-        <v>73000</v>
+        <v>75300</v>
       </c>
       <c r="G57" s="3">
-        <v>57900</v>
+        <v>59700</v>
       </c>
       <c r="H57" s="3">
-        <v>64700</v>
+        <v>66800</v>
       </c>
       <c r="I57" s="3">
-        <v>125700</v>
+        <v>129800</v>
       </c>
       <c r="J57" s="3">
-        <v>81600</v>
+        <v>84100</v>
       </c>
       <c r="K57" s="3">
         <v>118800</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>209600</v>
+        <v>216300</v>
       </c>
       <c r="E58" s="3">
-        <v>176800</v>
+        <v>182400</v>
       </c>
       <c r="F58" s="3">
-        <v>176200</v>
+        <v>181800</v>
       </c>
       <c r="G58" s="3">
-        <v>246100</v>
+        <v>253900</v>
       </c>
       <c r="H58" s="3">
-        <v>209300</v>
+        <v>216000</v>
       </c>
       <c r="I58" s="3">
-        <v>311400</v>
+        <v>321300</v>
       </c>
       <c r="J58" s="3">
-        <v>313700</v>
+        <v>323600</v>
       </c>
       <c r="K58" s="3">
         <v>329500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>212700</v>
+        <v>219500</v>
       </c>
       <c r="E59" s="3">
-        <v>219600</v>
+        <v>226500</v>
       </c>
       <c r="F59" s="3">
-        <v>219000</v>
+        <v>226000</v>
       </c>
       <c r="G59" s="3">
-        <v>244900</v>
+        <v>252700</v>
       </c>
       <c r="H59" s="3">
-        <v>256300</v>
+        <v>264500</v>
       </c>
       <c r="I59" s="3">
-        <v>250900</v>
+        <v>258900</v>
       </c>
       <c r="J59" s="3">
-        <v>279400</v>
+        <v>288300</v>
       </c>
       <c r="K59" s="3">
         <v>342600</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>520700</v>
+        <v>537200</v>
       </c>
       <c r="E60" s="3">
-        <v>478500</v>
+        <v>493700</v>
       </c>
       <c r="F60" s="3">
-        <v>468200</v>
+        <v>483100</v>
       </c>
       <c r="G60" s="3">
-        <v>548900</v>
+        <v>566400</v>
       </c>
       <c r="H60" s="3">
-        <v>530400</v>
+        <v>547200</v>
       </c>
       <c r="I60" s="3">
-        <v>688000</v>
+        <v>710000</v>
       </c>
       <c r="J60" s="3">
-        <v>674600</v>
+        <v>696100</v>
       </c>
       <c r="K60" s="3">
         <v>790900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>953500</v>
+        <v>983900</v>
       </c>
       <c r="E61" s="3">
-        <v>925300</v>
+        <v>954700</v>
       </c>
       <c r="F61" s="3">
-        <v>804700</v>
+        <v>830300</v>
       </c>
       <c r="G61" s="3">
-        <v>817200</v>
+        <v>843200</v>
       </c>
       <c r="H61" s="3">
-        <v>870800</v>
+        <v>898500</v>
       </c>
       <c r="I61" s="3">
-        <v>1011700</v>
+        <v>1043900</v>
       </c>
       <c r="J61" s="3">
-        <v>1236700</v>
+        <v>1276000</v>
       </c>
       <c r="K61" s="3">
         <v>1569500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>29900</v>
+        <v>30900</v>
       </c>
       <c r="E62" s="3">
-        <v>42500</v>
+        <v>43800</v>
       </c>
       <c r="F62" s="3">
-        <v>51900</v>
+        <v>53500</v>
       </c>
       <c r="G62" s="3">
-        <v>151400</v>
+        <v>156200</v>
       </c>
       <c r="H62" s="3">
-        <v>51000</v>
+        <v>52700</v>
       </c>
       <c r="I62" s="3">
-        <v>53300</v>
+        <v>55000</v>
       </c>
       <c r="J62" s="3">
-        <v>47300</v>
+        <v>48800</v>
       </c>
       <c r="K62" s="3">
         <v>58100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1504700</v>
+        <v>1552600</v>
       </c>
       <c r="E66" s="3">
-        <v>1446800</v>
+        <v>1492900</v>
       </c>
       <c r="F66" s="3">
-        <v>1325900</v>
+        <v>1368100</v>
       </c>
       <c r="G66" s="3">
-        <v>1522600</v>
+        <v>1571100</v>
       </c>
       <c r="H66" s="3">
-        <v>1456800</v>
+        <v>1503200</v>
       </c>
       <c r="I66" s="3">
-        <v>1757600</v>
+        <v>1813600</v>
       </c>
       <c r="J66" s="3">
-        <v>1959500</v>
+        <v>2021900</v>
       </c>
       <c r="K66" s="3">
         <v>2419100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>359300</v>
+        <v>370700</v>
       </c>
       <c r="E72" s="3">
-        <v>384700</v>
+        <v>396900</v>
       </c>
       <c r="F72" s="3">
-        <v>409500</v>
+        <v>422500</v>
       </c>
       <c r="G72" s="3">
-        <v>377000</v>
+        <v>389000</v>
       </c>
       <c r="H72" s="3">
-        <v>333600</v>
+        <v>344200</v>
       </c>
       <c r="I72" s="3">
-        <v>307400</v>
+        <v>317200</v>
       </c>
       <c r="J72" s="3">
-        <v>205000</v>
+        <v>211500</v>
       </c>
       <c r="K72" s="3">
         <v>148500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>537500</v>
+        <v>554600</v>
       </c>
       <c r="E76" s="3">
-        <v>477600</v>
+        <v>492800</v>
       </c>
       <c r="F76" s="3">
-        <v>409700</v>
+        <v>422800</v>
       </c>
       <c r="G76" s="3">
-        <v>377000</v>
+        <v>389000</v>
       </c>
       <c r="H76" s="3">
-        <v>333300</v>
+        <v>343900</v>
       </c>
       <c r="I76" s="3">
-        <v>306800</v>
+        <v>316600</v>
       </c>
       <c r="J76" s="3">
-        <v>201600</v>
+        <v>208000</v>
       </c>
       <c r="K76" s="3">
         <v>145300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-30500</v>
+        <v>-31500</v>
       </c>
       <c r="E81" s="3">
-        <v>-17700</v>
+        <v>-18200</v>
       </c>
       <c r="F81" s="3">
-        <v>31900</v>
+        <v>33000</v>
       </c>
       <c r="G81" s="3">
-        <v>42200</v>
+        <v>43500</v>
       </c>
       <c r="H81" s="3">
-        <v>27100</v>
+        <v>28000</v>
       </c>
       <c r="I81" s="3">
-        <v>100000</v>
+        <v>103300</v>
       </c>
       <c r="J81" s="3">
-        <v>81800</v>
+        <v>84400</v>
       </c>
       <c r="K81" s="3">
         <v>154700</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>255900</v>
+        <v>264200</v>
       </c>
       <c r="E83" s="3">
-        <v>166400</v>
+        <v>171800</v>
       </c>
       <c r="F83" s="3">
-        <v>158200</v>
+        <v>163300</v>
       </c>
       <c r="G83" s="3">
-        <v>152200</v>
+        <v>157100</v>
       </c>
       <c r="H83" s="3">
-        <v>160200</v>
+        <v>165400</v>
       </c>
       <c r="I83" s="3">
-        <v>173800</v>
+        <v>179500</v>
       </c>
       <c r="J83" s="3">
-        <v>192700</v>
+        <v>198900</v>
       </c>
       <c r="K83" s="3">
         <v>223300</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>295200</v>
+        <v>304800</v>
       </c>
       <c r="E89" s="3">
-        <v>219400</v>
+        <v>226500</v>
       </c>
       <c r="F89" s="3">
-        <v>220600</v>
+        <v>227700</v>
       </c>
       <c r="G89" s="3">
-        <v>222600</v>
+        <v>229800</v>
       </c>
       <c r="H89" s="3">
-        <v>238300</v>
+        <v>246000</v>
       </c>
       <c r="I89" s="3">
-        <v>443700</v>
+        <v>458100</v>
       </c>
       <c r="J89" s="3">
-        <v>443400</v>
+        <v>457800</v>
       </c>
       <c r="K89" s="3">
         <v>478900</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-92300</v>
+        <v>-95300</v>
       </c>
       <c r="E91" s="3">
-        <v>-101500</v>
+        <v>-104700</v>
       </c>
       <c r="F91" s="3">
-        <v>-98600</v>
+        <v>-101800</v>
       </c>
       <c r="G91" s="3">
-        <v>-84100</v>
+        <v>-86800</v>
       </c>
       <c r="H91" s="3">
-        <v>-86900</v>
+        <v>-89700</v>
       </c>
       <c r="I91" s="3">
-        <v>-82400</v>
+        <v>-85000</v>
       </c>
       <c r="J91" s="3">
-        <v>-78400</v>
+        <v>-80900</v>
       </c>
       <c r="K91" s="3">
         <v>-133400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-159600</v>
+        <v>-164800</v>
       </c>
       <c r="E94" s="3">
-        <v>-179800</v>
+        <v>-185700</v>
       </c>
       <c r="F94" s="3">
-        <v>-183500</v>
+        <v>-189500</v>
       </c>
       <c r="G94" s="3">
-        <v>-103700</v>
+        <v>-107100</v>
       </c>
       <c r="H94" s="3">
-        <v>-27400</v>
+        <v>-28200</v>
       </c>
       <c r="I94" s="3">
-        <v>-99700</v>
+        <v>-103000</v>
       </c>
       <c r="J94" s="3">
-        <v>-98000</v>
+        <v>-101200</v>
       </c>
       <c r="K94" s="3">
         <v>-206600</v>
@@ -3313,10 +3313,10 @@
         <v>-300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="J96" s="3">
-        <v>-23100</v>
+        <v>-23800</v>
       </c>
       <c r="K96" s="3">
         <v>-114100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-191500</v>
+        <v>-197700</v>
       </c>
       <c r="E100" s="3">
-        <v>153000</v>
+        <v>158000</v>
       </c>
       <c r="F100" s="3">
-        <v>-240200</v>
+        <v>-248000</v>
       </c>
       <c r="G100" s="3">
-        <v>17700</v>
+        <v>18200</v>
       </c>
       <c r="H100" s="3">
-        <v>-323700</v>
+        <v>-334200</v>
       </c>
       <c r="I100" s="3">
-        <v>-315200</v>
+        <v>-325400</v>
       </c>
       <c r="J100" s="3">
-        <v>-447100</v>
+        <v>-461600</v>
       </c>
       <c r="K100" s="3">
         <v>-128100</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-55900</v>
+        <v>-57700</v>
       </c>
       <c r="E102" s="3">
-        <v>192400</v>
+        <v>198600</v>
       </c>
       <c r="F102" s="3">
-        <v>-203200</v>
+        <v>-209800</v>
       </c>
       <c r="G102" s="3">
-        <v>136500</v>
+        <v>140900</v>
       </c>
       <c r="H102" s="3">
-        <v>-113100</v>
+        <v>-116800</v>
       </c>
       <c r="I102" s="3">
-        <v>28800</v>
+        <v>29700</v>
       </c>
       <c r="J102" s="3">
-        <v>-101700</v>
+        <v>-105000</v>
       </c>
       <c r="K102" s="3">
         <v>144200</v>

--- a/AAII_Financials/Yearly/CEL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CEL_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1091000</v>
+        <v>1118100</v>
       </c>
       <c r="E8" s="3">
-        <v>1085100</v>
+        <v>1112000</v>
       </c>
       <c r="F8" s="3">
-        <v>1138900</v>
+        <v>1167200</v>
       </c>
       <c r="G8" s="3">
-        <v>1184800</v>
+        <v>1214300</v>
       </c>
       <c r="H8" s="3">
-        <v>1229800</v>
+        <v>1260400</v>
       </c>
       <c r="I8" s="3">
-        <v>1344600</v>
+        <v>1378000</v>
       </c>
       <c r="J8" s="3">
-        <v>1449600</v>
+        <v>1485600</v>
       </c>
       <c r="K8" s="3">
         <v>1732900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>801700</v>
+        <v>821700</v>
       </c>
       <c r="E9" s="3">
-        <v>782900</v>
+        <v>802400</v>
       </c>
       <c r="F9" s="3">
-        <v>788500</v>
+        <v>808100</v>
       </c>
       <c r="G9" s="3">
-        <v>795000</v>
+        <v>814700</v>
       </c>
       <c r="H9" s="3">
-        <v>812900</v>
+        <v>833100</v>
       </c>
       <c r="I9" s="3">
-        <v>802300</v>
+        <v>822300</v>
       </c>
       <c r="J9" s="3">
-        <v>879700</v>
+        <v>901600</v>
       </c>
       <c r="K9" s="3">
         <v>1010600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>289200</v>
+        <v>296400</v>
       </c>
       <c r="E10" s="3">
-        <v>302200</v>
+        <v>309700</v>
       </c>
       <c r="F10" s="3">
-        <v>350400</v>
+        <v>359100</v>
       </c>
       <c r="G10" s="3">
-        <v>389800</v>
+        <v>399500</v>
       </c>
       <c r="H10" s="3">
-        <v>416900</v>
+        <v>427300</v>
       </c>
       <c r="I10" s="3">
-        <v>542200</v>
+        <v>555700</v>
       </c>
       <c r="J10" s="3">
-        <v>569900</v>
+        <v>584100</v>
       </c>
       <c r="K10" s="3">
         <v>722300</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>87400</v>
+        <v>89600</v>
       </c>
       <c r="E15" s="3">
-        <v>57100</v>
+        <v>58500</v>
       </c>
       <c r="F15" s="3">
-        <v>42100</v>
+        <v>43100</v>
       </c>
       <c r="G15" s="3">
-        <v>40600</v>
+        <v>41600</v>
       </c>
       <c r="H15" s="3">
-        <v>53300</v>
+        <v>54600</v>
       </c>
       <c r="I15" s="3">
-        <v>58800</v>
+        <v>60300</v>
       </c>
       <c r="J15" s="3">
-        <v>75900</v>
+        <v>77800</v>
       </c>
       <c r="K15" s="3">
         <v>96300</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1083900</v>
+        <v>1110800</v>
       </c>
       <c r="E17" s="3">
-        <v>1055400</v>
+        <v>1081600</v>
       </c>
       <c r="F17" s="3">
-        <v>1042400</v>
+        <v>1068300</v>
       </c>
       <c r="G17" s="3">
-        <v>1093600</v>
+        <v>1120800</v>
       </c>
       <c r="H17" s="3">
-        <v>1138600</v>
+        <v>1166900</v>
       </c>
       <c r="I17" s="3">
-        <v>1149800</v>
+        <v>1178400</v>
       </c>
       <c r="J17" s="3">
-        <v>1258100</v>
+        <v>1289300</v>
       </c>
       <c r="K17" s="3">
         <v>1445500</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="E18" s="3">
-        <v>29700</v>
+        <v>30500</v>
       </c>
       <c r="F18" s="3">
-        <v>96500</v>
+        <v>98900</v>
       </c>
       <c r="G18" s="3">
-        <v>91200</v>
+        <v>93500</v>
       </c>
       <c r="H18" s="3">
-        <v>91200</v>
+        <v>93500</v>
       </c>
       <c r="I18" s="3">
-        <v>194800</v>
+        <v>199600</v>
       </c>
       <c r="J18" s="3">
-        <v>191500</v>
+        <v>196300</v>
       </c>
       <c r="K18" s="3">
         <v>287500</v>
@@ -1059,10 +1059,10 @@
         <v>-2100</v>
       </c>
       <c r="E20" s="3">
-        <v>-9700</v>
+        <v>-10000</v>
       </c>
       <c r="F20" s="3">
-        <v>-8200</v>
+        <v>-8400</v>
       </c>
       <c r="G20" s="3">
         <v>2100</v>
@@ -1071,10 +1071,10 @@
         <v>-2400</v>
       </c>
       <c r="I20" s="3">
-        <v>15600</v>
+        <v>16000</v>
       </c>
       <c r="J20" s="3">
-        <v>18200</v>
+        <v>18700</v>
       </c>
       <c r="K20" s="3">
         <v>25400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>269100</v>
+        <v>275500</v>
       </c>
       <c r="E21" s="3">
-        <v>191800</v>
+        <v>196400</v>
       </c>
       <c r="F21" s="3">
-        <v>251500</v>
+        <v>257600</v>
       </c>
       <c r="G21" s="3">
-        <v>250300</v>
+        <v>256400</v>
       </c>
       <c r="H21" s="3">
-        <v>254200</v>
+        <v>260300</v>
       </c>
       <c r="I21" s="3">
-        <v>389800</v>
+        <v>399300</v>
       </c>
       <c r="J21" s="3">
-        <v>408600</v>
+        <v>418500</v>
       </c>
       <c r="K21" s="3">
         <v>535300</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>43300</v>
+        <v>44300</v>
       </c>
       <c r="E22" s="3">
-        <v>40600</v>
+        <v>41600</v>
       </c>
       <c r="F22" s="3">
-        <v>43300</v>
+        <v>44300</v>
       </c>
       <c r="G22" s="3">
-        <v>46200</v>
+        <v>47300</v>
       </c>
       <c r="H22" s="3">
-        <v>49700</v>
+        <v>51000</v>
       </c>
       <c r="I22" s="3">
-        <v>73800</v>
+        <v>75700</v>
       </c>
       <c r="J22" s="3">
-        <v>90600</v>
+        <v>92900</v>
       </c>
       <c r="K22" s="3">
         <v>101000</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-38200</v>
+        <v>-39200</v>
       </c>
       <c r="E23" s="3">
-        <v>-20600</v>
+        <v>-21100</v>
       </c>
       <c r="F23" s="3">
-        <v>45000</v>
+        <v>46100</v>
       </c>
       <c r="G23" s="3">
-        <v>47100</v>
+        <v>48200</v>
       </c>
       <c r="H23" s="3">
-        <v>39100</v>
+        <v>40100</v>
       </c>
       <c r="I23" s="3">
-        <v>136500</v>
+        <v>139900</v>
       </c>
       <c r="J23" s="3">
-        <v>119200</v>
+        <v>122100</v>
       </c>
       <c r="K23" s="3">
         <v>211900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="E24" s="3">
         <v>-1800</v>
       </c>
       <c r="F24" s="3">
-        <v>11800</v>
+        <v>12100</v>
       </c>
       <c r="G24" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H24" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="I24" s="3">
-        <v>32400</v>
+        <v>33200</v>
       </c>
       <c r="J24" s="3">
-        <v>34400</v>
+        <v>35300</v>
       </c>
       <c r="K24" s="3">
         <v>56900</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-31500</v>
+        <v>-32300</v>
       </c>
       <c r="E26" s="3">
-        <v>-18800</v>
+        <v>-19300</v>
       </c>
       <c r="F26" s="3">
-        <v>33200</v>
+        <v>34100</v>
       </c>
       <c r="G26" s="3">
-        <v>44100</v>
+        <v>45200</v>
       </c>
       <c r="H26" s="3">
-        <v>28500</v>
+        <v>29200</v>
       </c>
       <c r="I26" s="3">
-        <v>104200</v>
+        <v>106700</v>
       </c>
       <c r="J26" s="3">
-        <v>84700</v>
+        <v>86800</v>
       </c>
       <c r="K26" s="3">
         <v>155000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-31500</v>
+        <v>-32300</v>
       </c>
       <c r="E27" s="3">
-        <v>-18200</v>
+        <v>-18700</v>
       </c>
       <c r="F27" s="3">
-        <v>33000</v>
+        <v>33800</v>
       </c>
       <c r="G27" s="3">
-        <v>43500</v>
+        <v>44600</v>
       </c>
       <c r="H27" s="3">
-        <v>28000</v>
+        <v>28600</v>
       </c>
       <c r="I27" s="3">
-        <v>103300</v>
+        <v>105800</v>
       </c>
       <c r="J27" s="3">
-        <v>84400</v>
+        <v>86500</v>
       </c>
       <c r="K27" s="3">
         <v>154700</v>
@@ -1455,10 +1455,10 @@
         <v>2100</v>
       </c>
       <c r="E32" s="3">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="F32" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="G32" s="3">
         <v>-2100</v>
@@ -1467,10 +1467,10 @@
         <v>2400</v>
       </c>
       <c r="I32" s="3">
-        <v>-15600</v>
+        <v>-16000</v>
       </c>
       <c r="J32" s="3">
-        <v>-18200</v>
+        <v>-18700</v>
       </c>
       <c r="K32" s="3">
         <v>-25400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-31500</v>
+        <v>-32300</v>
       </c>
       <c r="E33" s="3">
-        <v>-18200</v>
+        <v>-18700</v>
       </c>
       <c r="F33" s="3">
-        <v>33000</v>
+        <v>33800</v>
       </c>
       <c r="G33" s="3">
-        <v>43500</v>
+        <v>44600</v>
       </c>
       <c r="H33" s="3">
-        <v>28000</v>
+        <v>28600</v>
       </c>
       <c r="I33" s="3">
-        <v>103300</v>
+        <v>105800</v>
       </c>
       <c r="J33" s="3">
-        <v>84400</v>
+        <v>86500</v>
       </c>
       <c r="K33" s="3">
         <v>154700</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-31500</v>
+        <v>-32300</v>
       </c>
       <c r="E35" s="3">
-        <v>-18200</v>
+        <v>-18700</v>
       </c>
       <c r="F35" s="3">
-        <v>33000</v>
+        <v>33800</v>
       </c>
       <c r="G35" s="3">
-        <v>43500</v>
+        <v>44600</v>
       </c>
       <c r="H35" s="3">
-        <v>28000</v>
+        <v>28600</v>
       </c>
       <c r="I35" s="3">
-        <v>103300</v>
+        <v>105800</v>
       </c>
       <c r="J35" s="3">
-        <v>84400</v>
+        <v>86500</v>
       </c>
       <c r="K35" s="3">
         <v>154700</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="E41" s="3">
-        <v>14700</v>
+        <v>15100</v>
       </c>
       <c r="F41" s="3">
-        <v>17400</v>
+        <v>17800</v>
       </c>
       <c r="G41" s="3">
-        <v>52400</v>
+        <v>53700</v>
       </c>
       <c r="H41" s="3">
-        <v>16800</v>
+        <v>17200</v>
       </c>
       <c r="I41" s="3">
-        <v>39100</v>
+        <v>40100</v>
       </c>
       <c r="J41" s="3">
-        <v>17100</v>
+        <v>17500</v>
       </c>
       <c r="K41" s="3">
         <v>11100</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>418700</v>
+        <v>429100</v>
       </c>
       <c r="E42" s="3">
-        <v>457800</v>
+        <v>469200</v>
       </c>
       <c r="F42" s="3">
-        <v>244800</v>
+        <v>250900</v>
       </c>
       <c r="G42" s="3">
-        <v>396000</v>
+        <v>405900</v>
       </c>
       <c r="H42" s="3">
-        <v>289800</v>
+        <v>297000</v>
       </c>
       <c r="I42" s="3">
-        <v>454900</v>
+        <v>466200</v>
       </c>
       <c r="J42" s="3">
-        <v>444900</v>
+        <v>455900</v>
       </c>
       <c r="K42" s="3">
         <v>545400</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>338600</v>
+        <v>347100</v>
       </c>
       <c r="E43" s="3">
-        <v>344200</v>
+        <v>352800</v>
       </c>
       <c r="F43" s="3">
-        <v>380400</v>
+        <v>389900</v>
       </c>
       <c r="G43" s="3">
-        <v>391900</v>
+        <v>401600</v>
       </c>
       <c r="H43" s="3">
-        <v>386900</v>
+        <v>396500</v>
       </c>
       <c r="I43" s="3">
-        <v>419300</v>
+        <v>429700</v>
       </c>
       <c r="J43" s="3">
-        <v>512200</v>
+        <v>525000</v>
       </c>
       <c r="K43" s="3">
         <v>545200</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19400</v>
+        <v>19900</v>
       </c>
       <c r="E44" s="3">
-        <v>27700</v>
+        <v>28300</v>
       </c>
       <c r="F44" s="3">
-        <v>20600</v>
+        <v>21100</v>
       </c>
       <c r="G44" s="3">
-        <v>18800</v>
+        <v>19300</v>
       </c>
       <c r="H44" s="3">
-        <v>25000</v>
+        <v>25600</v>
       </c>
       <c r="I44" s="3">
-        <v>26200</v>
+        <v>26800</v>
       </c>
       <c r="J44" s="3">
-        <v>24700</v>
+        <v>25300</v>
       </c>
       <c r="K44" s="3">
         <v>32700</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18500</v>
+        <v>19000</v>
       </c>
       <c r="E45" s="3">
-        <v>22700</v>
+        <v>23200</v>
       </c>
       <c r="F45" s="3">
-        <v>23500</v>
+        <v>24100</v>
       </c>
       <c r="G45" s="3">
-        <v>23200</v>
+        <v>23800</v>
       </c>
       <c r="H45" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="I45" s="3">
-        <v>16800</v>
+        <v>17200</v>
       </c>
       <c r="J45" s="3">
-        <v>15600</v>
+        <v>16000</v>
       </c>
       <c r="K45" s="3">
         <v>16100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>811800</v>
+        <v>831900</v>
       </c>
       <c r="E46" s="3">
-        <v>867100</v>
+        <v>888600</v>
       </c>
       <c r="F46" s="3">
-        <v>686700</v>
+        <v>703800</v>
       </c>
       <c r="G46" s="3">
-        <v>882400</v>
+        <v>904300</v>
       </c>
       <c r="H46" s="3">
-        <v>731100</v>
+        <v>749300</v>
       </c>
       <c r="I46" s="3">
-        <v>956200</v>
+        <v>980000</v>
       </c>
       <c r="J46" s="3">
-        <v>1014500</v>
+        <v>1039700</v>
       </c>
       <c r="K46" s="3">
         <v>1150400</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>274200</v>
+        <v>281000</v>
       </c>
       <c r="E47" s="3">
-        <v>250700</v>
+        <v>256900</v>
       </c>
       <c r="F47" s="3">
-        <v>263300</v>
+        <v>269900</v>
       </c>
       <c r="G47" s="3">
-        <v>234200</v>
+        <v>240000</v>
       </c>
       <c r="H47" s="3">
-        <v>231000</v>
+        <v>236700</v>
       </c>
       <c r="I47" s="3">
-        <v>242400</v>
+        <v>248500</v>
       </c>
       <c r="J47" s="3">
-        <v>251300</v>
+        <v>257500</v>
       </c>
       <c r="K47" s="3">
         <v>355800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>640500</v>
+        <v>656400</v>
       </c>
       <c r="E48" s="3">
-        <v>486100</v>
+        <v>498100</v>
       </c>
       <c r="F48" s="3">
-        <v>470200</v>
+        <v>481800</v>
       </c>
       <c r="G48" s="3">
-        <v>488100</v>
+        <v>500200</v>
       </c>
       <c r="H48" s="3">
-        <v>513400</v>
+        <v>526200</v>
       </c>
       <c r="I48" s="3">
-        <v>539600</v>
+        <v>553000</v>
       </c>
       <c r="J48" s="3">
-        <v>548700</v>
+        <v>562400</v>
       </c>
       <c r="K48" s="3">
         <v>606200</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>380700</v>
+        <v>390200</v>
       </c>
       <c r="E49" s="3">
-        <v>381900</v>
+        <v>391400</v>
       </c>
       <c r="F49" s="3">
-        <v>370700</v>
+        <v>379900</v>
       </c>
       <c r="G49" s="3">
-        <v>355100</v>
+        <v>363900</v>
       </c>
       <c r="H49" s="3">
-        <v>369000</v>
+        <v>378100</v>
       </c>
       <c r="I49" s="3">
-        <v>386900</v>
+        <v>396500</v>
       </c>
       <c r="J49" s="3">
-        <v>408700</v>
+        <v>418800</v>
       </c>
       <c r="K49" s="3">
         <v>441000</v>
@@ -2027,13 +2027,13 @@
         <v>300</v>
       </c>
       <c r="H52" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I52" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="J52" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="K52" s="3">
         <v>11100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2107200</v>
+        <v>2159600</v>
       </c>
       <c r="E54" s="3">
-        <v>1985700</v>
+        <v>2035000</v>
       </c>
       <c r="F54" s="3">
-        <v>1790900</v>
+        <v>1835400</v>
       </c>
       <c r="G54" s="3">
-        <v>1960100</v>
+        <v>2008800</v>
       </c>
       <c r="H54" s="3">
-        <v>1847100</v>
+        <v>1893000</v>
       </c>
       <c r="I54" s="3">
-        <v>2130200</v>
+        <v>2183100</v>
       </c>
       <c r="J54" s="3">
-        <v>2229900</v>
+        <v>2285300</v>
       </c>
       <c r="K54" s="3">
         <v>2564400</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>101500</v>
+        <v>104000</v>
       </c>
       <c r="E57" s="3">
-        <v>84700</v>
+        <v>86800</v>
       </c>
       <c r="F57" s="3">
-        <v>75300</v>
+        <v>77200</v>
       </c>
       <c r="G57" s="3">
-        <v>59700</v>
+        <v>61200</v>
       </c>
       <c r="H57" s="3">
-        <v>66800</v>
+        <v>68400</v>
       </c>
       <c r="I57" s="3">
-        <v>129800</v>
+        <v>133000</v>
       </c>
       <c r="J57" s="3">
-        <v>84100</v>
+        <v>86200</v>
       </c>
       <c r="K57" s="3">
         <v>118800</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>216300</v>
+        <v>221600</v>
       </c>
       <c r="E58" s="3">
-        <v>182400</v>
+        <v>186900</v>
       </c>
       <c r="F58" s="3">
-        <v>181800</v>
+        <v>186300</v>
       </c>
       <c r="G58" s="3">
-        <v>253900</v>
+        <v>260200</v>
       </c>
       <c r="H58" s="3">
-        <v>216000</v>
+        <v>221300</v>
       </c>
       <c r="I58" s="3">
-        <v>321300</v>
+        <v>329300</v>
       </c>
       <c r="J58" s="3">
-        <v>323600</v>
+        <v>331700</v>
       </c>
       <c r="K58" s="3">
         <v>329500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>219500</v>
+        <v>224900</v>
       </c>
       <c r="E59" s="3">
-        <v>226500</v>
+        <v>232200</v>
       </c>
       <c r="F59" s="3">
-        <v>226000</v>
+        <v>231600</v>
       </c>
       <c r="G59" s="3">
-        <v>252700</v>
+        <v>259000</v>
       </c>
       <c r="H59" s="3">
-        <v>264500</v>
+        <v>271100</v>
       </c>
       <c r="I59" s="3">
-        <v>258900</v>
+        <v>265300</v>
       </c>
       <c r="J59" s="3">
-        <v>288300</v>
+        <v>295500</v>
       </c>
       <c r="K59" s="3">
         <v>342600</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>537200</v>
+        <v>550600</v>
       </c>
       <c r="E60" s="3">
-        <v>493700</v>
+        <v>506000</v>
       </c>
       <c r="F60" s="3">
-        <v>483100</v>
+        <v>495100</v>
       </c>
       <c r="G60" s="3">
-        <v>566400</v>
+        <v>580400</v>
       </c>
       <c r="H60" s="3">
-        <v>547200</v>
+        <v>560800</v>
       </c>
       <c r="I60" s="3">
-        <v>710000</v>
+        <v>727600</v>
       </c>
       <c r="J60" s="3">
-        <v>696100</v>
+        <v>713400</v>
       </c>
       <c r="K60" s="3">
         <v>790900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>983900</v>
+        <v>1008300</v>
       </c>
       <c r="E61" s="3">
-        <v>954700</v>
+        <v>978500</v>
       </c>
       <c r="F61" s="3">
-        <v>830300</v>
+        <v>850900</v>
       </c>
       <c r="G61" s="3">
-        <v>843200</v>
+        <v>864200</v>
       </c>
       <c r="H61" s="3">
-        <v>898500</v>
+        <v>920900</v>
       </c>
       <c r="I61" s="3">
-        <v>1043900</v>
+        <v>1069800</v>
       </c>
       <c r="J61" s="3">
-        <v>1276000</v>
+        <v>1307700</v>
       </c>
       <c r="K61" s="3">
         <v>1569500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>30900</v>
+        <v>31700</v>
       </c>
       <c r="E62" s="3">
-        <v>43800</v>
+        <v>44900</v>
       </c>
       <c r="F62" s="3">
-        <v>53500</v>
+        <v>54900</v>
       </c>
       <c r="G62" s="3">
-        <v>156200</v>
+        <v>160100</v>
       </c>
       <c r="H62" s="3">
-        <v>52700</v>
+        <v>54000</v>
       </c>
       <c r="I62" s="3">
-        <v>55000</v>
+        <v>56400</v>
       </c>
       <c r="J62" s="3">
-        <v>48800</v>
+        <v>50100</v>
       </c>
       <c r="K62" s="3">
         <v>58100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1552600</v>
+        <v>1591200</v>
       </c>
       <c r="E66" s="3">
-        <v>1492900</v>
+        <v>1530000</v>
       </c>
       <c r="F66" s="3">
-        <v>1368100</v>
+        <v>1402100</v>
       </c>
       <c r="G66" s="3">
-        <v>1571100</v>
+        <v>1610200</v>
       </c>
       <c r="H66" s="3">
-        <v>1503200</v>
+        <v>1540500</v>
       </c>
       <c r="I66" s="3">
-        <v>1813600</v>
+        <v>1858600</v>
       </c>
       <c r="J66" s="3">
-        <v>2021900</v>
+        <v>2072100</v>
       </c>
       <c r="K66" s="3">
         <v>2419100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>370700</v>
+        <v>379900</v>
       </c>
       <c r="E72" s="3">
-        <v>396900</v>
+        <v>406800</v>
       </c>
       <c r="F72" s="3">
-        <v>422500</v>
+        <v>433000</v>
       </c>
       <c r="G72" s="3">
-        <v>389000</v>
+        <v>398600</v>
       </c>
       <c r="H72" s="3">
-        <v>344200</v>
+        <v>352800</v>
       </c>
       <c r="I72" s="3">
-        <v>317200</v>
+        <v>325000</v>
       </c>
       <c r="J72" s="3">
-        <v>211500</v>
+        <v>216800</v>
       </c>
       <c r="K72" s="3">
         <v>148500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>554600</v>
+        <v>568400</v>
       </c>
       <c r="E76" s="3">
-        <v>492800</v>
+        <v>505100</v>
       </c>
       <c r="F76" s="3">
-        <v>422800</v>
+        <v>433300</v>
       </c>
       <c r="G76" s="3">
-        <v>389000</v>
+        <v>398600</v>
       </c>
       <c r="H76" s="3">
-        <v>343900</v>
+        <v>352500</v>
       </c>
       <c r="I76" s="3">
-        <v>316600</v>
+        <v>324400</v>
       </c>
       <c r="J76" s="3">
-        <v>208000</v>
+        <v>213200</v>
       </c>
       <c r="K76" s="3">
         <v>145300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-31500</v>
+        <v>-32300</v>
       </c>
       <c r="E81" s="3">
-        <v>-18200</v>
+        <v>-18700</v>
       </c>
       <c r="F81" s="3">
-        <v>33000</v>
+        <v>33800</v>
       </c>
       <c r="G81" s="3">
-        <v>43500</v>
+        <v>44600</v>
       </c>
       <c r="H81" s="3">
-        <v>28000</v>
+        <v>28600</v>
       </c>
       <c r="I81" s="3">
-        <v>103300</v>
+        <v>105800</v>
       </c>
       <c r="J81" s="3">
-        <v>84400</v>
+        <v>86500</v>
       </c>
       <c r="K81" s="3">
         <v>154700</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>264200</v>
+        <v>270800</v>
       </c>
       <c r="E83" s="3">
-        <v>171800</v>
+        <v>176100</v>
       </c>
       <c r="F83" s="3">
-        <v>163300</v>
+        <v>167300</v>
       </c>
       <c r="G83" s="3">
-        <v>157100</v>
+        <v>161000</v>
       </c>
       <c r="H83" s="3">
-        <v>165400</v>
+        <v>169500</v>
       </c>
       <c r="I83" s="3">
-        <v>179500</v>
+        <v>183900</v>
       </c>
       <c r="J83" s="3">
-        <v>198900</v>
+        <v>203800</v>
       </c>
       <c r="K83" s="3">
         <v>223300</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>304800</v>
+        <v>312400</v>
       </c>
       <c r="E89" s="3">
-        <v>226500</v>
+        <v>232200</v>
       </c>
       <c r="F89" s="3">
-        <v>227700</v>
+        <v>233400</v>
       </c>
       <c r="G89" s="3">
-        <v>229800</v>
+        <v>235500</v>
       </c>
       <c r="H89" s="3">
-        <v>246000</v>
+        <v>252100</v>
       </c>
       <c r="I89" s="3">
-        <v>458100</v>
+        <v>469500</v>
       </c>
       <c r="J89" s="3">
-        <v>457800</v>
+        <v>469200</v>
       </c>
       <c r="K89" s="3">
         <v>478900</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-95300</v>
+        <v>-97700</v>
       </c>
       <c r="E91" s="3">
-        <v>-104700</v>
+        <v>-107300</v>
       </c>
       <c r="F91" s="3">
-        <v>-101800</v>
+        <v>-104300</v>
       </c>
       <c r="G91" s="3">
-        <v>-86800</v>
+        <v>-89000</v>
       </c>
       <c r="H91" s="3">
-        <v>-89700</v>
+        <v>-92000</v>
       </c>
       <c r="I91" s="3">
-        <v>-85000</v>
+        <v>-87100</v>
       </c>
       <c r="J91" s="3">
-        <v>-80900</v>
+        <v>-82900</v>
       </c>
       <c r="K91" s="3">
         <v>-133400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-164800</v>
+        <v>-168900</v>
       </c>
       <c r="E94" s="3">
-        <v>-185700</v>
+        <v>-190300</v>
       </c>
       <c r="F94" s="3">
-        <v>-189500</v>
+        <v>-194200</v>
       </c>
       <c r="G94" s="3">
-        <v>-107100</v>
+        <v>-109800</v>
       </c>
       <c r="H94" s="3">
-        <v>-28200</v>
+        <v>-28900</v>
       </c>
       <c r="I94" s="3">
-        <v>-103000</v>
+        <v>-105500</v>
       </c>
       <c r="J94" s="3">
-        <v>-101200</v>
+        <v>-103700</v>
       </c>
       <c r="K94" s="3">
         <v>-206600</v>
@@ -3316,7 +3316,7 @@
         <v>-1200</v>
       </c>
       <c r="J96" s="3">
-        <v>-23800</v>
+        <v>-24400</v>
       </c>
       <c r="K96" s="3">
         <v>-114100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-197700</v>
+        <v>-202600</v>
       </c>
       <c r="E100" s="3">
-        <v>158000</v>
+        <v>161900</v>
       </c>
       <c r="F100" s="3">
-        <v>-248000</v>
+        <v>-254200</v>
       </c>
       <c r="G100" s="3">
-        <v>18200</v>
+        <v>18700</v>
       </c>
       <c r="H100" s="3">
-        <v>-334200</v>
+        <v>-342500</v>
       </c>
       <c r="I100" s="3">
-        <v>-325400</v>
+        <v>-333500</v>
       </c>
       <c r="J100" s="3">
-        <v>-461600</v>
+        <v>-473100</v>
       </c>
       <c r="K100" s="3">
         <v>-128100</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-57700</v>
+        <v>-59100</v>
       </c>
       <c r="E102" s="3">
-        <v>198600</v>
+        <v>203500</v>
       </c>
       <c r="F102" s="3">
-        <v>-209800</v>
+        <v>-215000</v>
       </c>
       <c r="G102" s="3">
-        <v>140900</v>
+        <v>144400</v>
       </c>
       <c r="H102" s="3">
-        <v>-116800</v>
+        <v>-119700</v>
       </c>
       <c r="I102" s="3">
-        <v>29700</v>
+        <v>30500</v>
       </c>
       <c r="J102" s="3">
-        <v>-105000</v>
+        <v>-107600</v>
       </c>
       <c r="K102" s="3">
         <v>144200</v>

--- a/AAII_Financials/Yearly/CEL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CEL_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="92">
   <si>
     <t>CEL</t>
   </si>
@@ -716,26 +716,26 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>1118100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1112000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1167200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1214300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1260400</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1378000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1485600</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K8" s="3">
         <v>1732900</v>
@@ -749,26 +749,26 @@
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>821700</v>
-      </c>
-      <c r="E9" s="3">
-        <v>802400</v>
-      </c>
-      <c r="F9" s="3">
-        <v>808100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>814700</v>
-      </c>
-      <c r="H9" s="3">
-        <v>833100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>822300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>901600</v>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K9" s="3">
         <v>1010600</v>
@@ -782,26 +782,26 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>296400</v>
-      </c>
-      <c r="E10" s="3">
-        <v>309700</v>
-      </c>
-      <c r="F10" s="3">
-        <v>359100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>399500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>427300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>555700</v>
-      </c>
-      <c r="J10" s="3">
-        <v>584100</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K10" s="3">
         <v>722300</v>
@@ -896,26 +896,26 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -929,26 +929,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>89600</v>
-      </c>
-      <c r="E15" s="3">
-        <v>58500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>43100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>41600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>54600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>60300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>77800</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>96300</v>
@@ -974,26 +974,26 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>1110800</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1081600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1068300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1120800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1166900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1178400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1289300</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K17" s="3">
         <v>1445500</v>
@@ -1007,26 +1007,26 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>7200</v>
-      </c>
-      <c r="E18" s="3">
-        <v>30500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>98900</v>
-      </c>
-      <c r="G18" s="3">
-        <v>93500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>93500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>199600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>196300</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K18" s="3">
         <v>287500</v>
@@ -1055,26 +1055,26 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>16000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>18700</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K20" s="3">
         <v>25400</v>
@@ -1088,26 +1088,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>275500</v>
-      </c>
-      <c r="E21" s="3">
-        <v>196400</v>
-      </c>
-      <c r="F21" s="3">
-        <v>257600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>256400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>260300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>399300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>418500</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>535300</v>
@@ -1121,26 +1121,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>44300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>41600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>44300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>47300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>51000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>75700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>92900</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>101000</v>
@@ -1154,26 +1154,26 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-39200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-21100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>46100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>48200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>40100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>139900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>122100</v>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K23" s="3">
         <v>211900</v>
@@ -1187,26 +1187,26 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="F24" s="3">
-        <v>12100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>10900</v>
-      </c>
-      <c r="I24" s="3">
-        <v>33200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>35300</v>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K24" s="3">
         <v>56900</v>
@@ -1253,26 +1253,26 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-32300</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-19300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>34100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>45200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>29200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>106700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>86800</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K26" s="3">
         <v>155000</v>
@@ -1286,26 +1286,26 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-32300</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="F27" s="3">
-        <v>33800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>44600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>28600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>105800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>86500</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K27" s="3">
         <v>154700</v>
@@ -1352,26 +1352,26 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1451,26 +1451,26 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>2100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>8400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-16000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-18700</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K32" s="3">
         <v>-25400</v>
@@ -1484,26 +1484,26 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-32300</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="F33" s="3">
-        <v>33800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>44600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>28600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>105800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>86500</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K33" s="3">
         <v>154700</v>
@@ -1550,26 +1550,26 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-32300</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="F35" s="3">
-        <v>33800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>44600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>28600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>105800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>86500</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K35" s="3">
         <v>154700</v>
@@ -1651,26 +1651,26 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>16900</v>
-      </c>
-      <c r="E41" s="3">
-        <v>15100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>17800</v>
-      </c>
-      <c r="G41" s="3">
-        <v>53700</v>
-      </c>
-      <c r="H41" s="3">
-        <v>17200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>40100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>17500</v>
+      <c r="D41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K41" s="3">
         <v>11100</v>
@@ -1684,26 +1684,26 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>429100</v>
-      </c>
-      <c r="E42" s="3">
-        <v>469200</v>
-      </c>
-      <c r="F42" s="3">
-        <v>250900</v>
-      </c>
-      <c r="G42" s="3">
-        <v>405900</v>
-      </c>
-      <c r="H42" s="3">
-        <v>297000</v>
-      </c>
-      <c r="I42" s="3">
-        <v>466200</v>
-      </c>
-      <c r="J42" s="3">
-        <v>455900</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>545400</v>
@@ -1717,26 +1717,26 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>347100</v>
-      </c>
-      <c r="E43" s="3">
-        <v>352800</v>
-      </c>
-      <c r="F43" s="3">
-        <v>389900</v>
-      </c>
-      <c r="G43" s="3">
-        <v>401600</v>
-      </c>
-      <c r="H43" s="3">
-        <v>396500</v>
-      </c>
-      <c r="I43" s="3">
-        <v>429700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>525000</v>
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K43" s="3">
         <v>545200</v>
@@ -1750,26 +1750,26 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>19900</v>
-      </c>
-      <c r="E44" s="3">
-        <v>28300</v>
-      </c>
-      <c r="F44" s="3">
-        <v>21100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>19300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>25600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>26800</v>
-      </c>
-      <c r="J44" s="3">
-        <v>25300</v>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K44" s="3">
         <v>32700</v>
@@ -1783,26 +1783,26 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>19000</v>
-      </c>
-      <c r="E45" s="3">
-        <v>23200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>24100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>23800</v>
-      </c>
-      <c r="H45" s="3">
-        <v>13000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>17200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>16000</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K45" s="3">
         <v>16100</v>
@@ -1816,26 +1816,26 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>831900</v>
-      </c>
-      <c r="E46" s="3">
-        <v>888600</v>
-      </c>
-      <c r="F46" s="3">
-        <v>703800</v>
-      </c>
-      <c r="G46" s="3">
-        <v>904300</v>
-      </c>
-      <c r="H46" s="3">
-        <v>749300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>980000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1039700</v>
+      <c r="D46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K46" s="3">
         <v>1150400</v>
@@ -1849,26 +1849,26 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>281000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>256900</v>
-      </c>
-      <c r="F47" s="3">
-        <v>269900</v>
-      </c>
-      <c r="G47" s="3">
-        <v>240000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>236700</v>
-      </c>
-      <c r="I47" s="3">
-        <v>248500</v>
-      </c>
-      <c r="J47" s="3">
-        <v>257500</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>355800</v>
@@ -1882,26 +1882,26 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>656400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>498100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>481800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>500200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>526200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>553000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>562400</v>
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K48" s="3">
         <v>606200</v>
@@ -1915,26 +1915,26 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>390200</v>
-      </c>
-      <c r="E49" s="3">
-        <v>391400</v>
-      </c>
-      <c r="F49" s="3">
-        <v>379900</v>
-      </c>
-      <c r="G49" s="3">
-        <v>363900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>378100</v>
-      </c>
-      <c r="I49" s="3">
-        <v>396500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>418800</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>441000</v>
@@ -2020,20 +2020,20 @@
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>5100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>6900</v>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>11100</v>
@@ -2080,26 +2080,26 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>2159600</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2035000</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1835400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>2008800</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1893000</v>
-      </c>
-      <c r="I54" s="3">
-        <v>2183100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>2285300</v>
+      <c r="D54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K54" s="3">
         <v>2564400</v>
@@ -2143,26 +2143,26 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>104000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>86800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>77200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>61200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>68400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>133000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>86200</v>
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K57" s="3">
         <v>118800</v>
@@ -2176,26 +2176,26 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>221600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>186900</v>
-      </c>
-      <c r="F58" s="3">
-        <v>186300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>260200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>221300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>329300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>331700</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>329500</v>
@@ -2209,26 +2209,26 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>224900</v>
-      </c>
-      <c r="E59" s="3">
-        <v>232200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>231600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>259000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>271100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>265300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>295500</v>
+      <c r="D59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K59" s="3">
         <v>342600</v>
@@ -2242,26 +2242,26 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>550600</v>
-      </c>
-      <c r="E60" s="3">
-        <v>506000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>495100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>580400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>560800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>727600</v>
-      </c>
-      <c r="J60" s="3">
-        <v>713400</v>
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K60" s="3">
         <v>790900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1008300</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>978500</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>850900</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>864200</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>920900</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>1069800</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>1307700</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>1569500</v>
@@ -2308,26 +2308,26 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>31700</v>
-      </c>
-      <c r="E62" s="3">
-        <v>44900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>54900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>160100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>54000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>56400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>50100</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
         <v>58100</v>
@@ -2440,26 +2440,26 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>1591200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1530000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1402100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1610200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1540500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1858600</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2072100</v>
+      <c r="D66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K66" s="3">
         <v>2419100</v>
@@ -2620,26 +2620,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>379900</v>
-      </c>
-      <c r="E72" s="3">
-        <v>406800</v>
-      </c>
-      <c r="F72" s="3">
-        <v>433000</v>
-      </c>
-      <c r="G72" s="3">
-        <v>398600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>352800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>325000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>216800</v>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K72" s="3">
         <v>148500</v>
@@ -2752,26 +2752,26 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>568400</v>
-      </c>
-      <c r="E76" s="3">
-        <v>505100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>433300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>398600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>352500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>324400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>213200</v>
+      <c r="D76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K76" s="3">
         <v>145300</v>
@@ -2856,26 +2856,26 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-32300</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="F81" s="3">
-        <v>33800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>44600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>28600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>105800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>86500</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K81" s="3">
         <v>154700</v>
@@ -2904,26 +2904,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>270800</v>
-      </c>
-      <c r="E83" s="3">
-        <v>176100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>167300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>161000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>169500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>183900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>203800</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>223300</v>
@@ -3102,26 +3102,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>312400</v>
-      </c>
-      <c r="E89" s="3">
-        <v>232200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>233400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>235500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>252100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>469500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>469200</v>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K89" s="3">
         <v>478900</v>
@@ -3150,26 +3150,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-97700</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-107300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-104300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-89000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-92000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-87100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-82900</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>-133400</v>
@@ -3249,26 +3249,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-168900</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-190300</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-194200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-109800</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-28900</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-105500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-103700</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-206600</v>
@@ -3304,19 +3304,19 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-24400</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-114100</v>
@@ -3429,26 +3429,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-202600</v>
-      </c>
-      <c r="E100" s="3">
-        <v>161900</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-254200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>18700</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-342500</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-333500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-473100</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-128100</v>
@@ -3462,20 +3462,20 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-300</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
@@ -3495,26 +3495,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-59100</v>
-      </c>
-      <c r="E102" s="3">
-        <v>203500</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-215000</v>
-      </c>
-      <c r="G102" s="3">
-        <v>144400</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-119700</v>
-      </c>
-      <c r="I102" s="3">
-        <v>30500</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-107600</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K102" s="3">
         <v>144200</v>
